--- a/authority list.xlsx
+++ b/authority list.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19230" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -735,7 +736,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -812,7 +813,9 @@
         <v>33</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7"/>
     </row>
@@ -832,7 +835,9 @@
         <v>33</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="7"/>
     </row>
@@ -872,7 +877,9 @@
         <v>32</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
     </row>

--- a/authority list.xlsx
+++ b/authority list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -857,7 +857,9 @@
         <v>32</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
     </row>

--- a/authority list.xlsx
+++ b/authority list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="19230" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="16080" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,106 +73,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增来港船舶信息（船舶信息、货物信息、船舱信息等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写船舶的离泊时间；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶货物统计、船舶舱口卸货统计、船舶卸船机作业量统计、船舶班次作业量统计、船舱舱口效率统计、船舶货物效率统计；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看船舶、船舱、货物信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看船舶、船舱卸船信息以及状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶靠泊；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清舱；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舱完成；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舱口标定、修改舱口标定；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成船舶；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶生产权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户的注册、密码的修改、权限的分配；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增来港船舶信息（船舶信息、货物信息、船舱信息等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写船舶的离泊时间；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船舶货物统计、船舶舱口卸货统计、船舶卸船机作业量统计、船舶班次作业量统计、船舱舱口效率统计、船舶货物效率统计；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看船舶、船舱、货物信息；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看船舶、船舱卸船信息以及状态；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船舶靠泊；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清舱；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船舱完成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舱口标定、修改舱口标定；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成船舶；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船舶生产权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
+    <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +437,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -751,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -769,13 +779,13 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -790,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
@@ -798,23 +808,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="7"/>
@@ -829,14 +839,14 @@
         <v>2</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="7"/>
@@ -851,14 +861,14 @@
         <v>3</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
@@ -866,21 +876,21 @@
     <row r="6" spans="1:10" ht="19.5">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="10">
         <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
@@ -890,21 +900,21 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="10">
         <v>5</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="7"/>
@@ -912,19 +922,19 @@
     <row r="8" spans="1:10" ht="19.5">
       <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="10">
         <v>6</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="7"/>
@@ -932,19 +942,19 @@
     <row r="9" spans="1:10" ht="19.5">
       <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="10">
         <v>11</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="7"/>
@@ -952,7 +962,7 @@
     <row r="10" spans="1:10" ht="19.5">
       <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="10">
@@ -962,7 +972,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
@@ -970,19 +980,19 @@
     <row r="11" spans="1:10" ht="19.5">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="10">
         <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="7"/>
@@ -990,10 +1000,10 @@
     <row r="12" spans="1:10" ht="19.5">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10">
         <v>10</v>
@@ -1001,10 +1011,10 @@
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="7"/>
@@ -1012,7 +1022,7 @@
     <row r="13" spans="1:10" ht="19.5">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="12">
@@ -1021,10 +1031,10 @@
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="7"/>
@@ -1032,7 +1042,7 @@
     <row r="14" spans="1:10" ht="19.5">
       <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="12">
@@ -1041,10 +1051,10 @@
       <c r="E14" s="14"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="7"/>
@@ -1052,7 +1062,7 @@
     <row r="15" spans="1:10" ht="19.5">
       <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="12">
@@ -1061,10 +1071,10 @@
       <c r="E15" s="14"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="7"/>
@@ -1072,7 +1082,7 @@
     <row r="16" spans="1:10" ht="19.5">
       <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="10">
@@ -1081,10 +1091,10 @@
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="7"/>
@@ -1097,18 +1107,18 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="10">
         <v>14</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="7"/>
@@ -1118,111 +1128,111 @@
         <v>11</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="10">
         <v>15</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="28"/>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="10">
         <v>16</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5">
       <c r="A20" s="19"/>
       <c r="B20" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="10">
         <v>17</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="28"/>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="10">
         <v>12</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1">
@@ -1230,85 +1240,103 @@
         <v>12</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="10">
         <v>18</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="28"/>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="10">
         <v>7</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="39">
-      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="10">
         <v>19</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="10">
+        <v>20</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A18:A21"/>

--- a/authority list.xlsx
+++ b/authority list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="16080" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19230" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,11 +172,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户的注册、密码的修改、权限的分配；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的注册、密码的修改、权限的分配、日志管理；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,49 +399,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -760,24 +760,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
@@ -804,13 +804,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10">
@@ -830,11 +830,11 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="39">
-      <c r="A4" s="19"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -852,11 +852,11 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19.5">
-      <c r="A5" s="19"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="10">
         <v>4</v>
       </c>
@@ -896,13 +896,13 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19.5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="10">
@@ -920,11 +920,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19.5">
-      <c r="A8" s="19"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="10">
         <v>6</v>
       </c>
@@ -940,11 +940,11 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19.5">
-      <c r="A9" s="19"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="10">
         <v>11</v>
       </c>
@@ -960,11 +960,11 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19.5">
-      <c r="A10" s="19"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="10">
         <v>8</v>
       </c>
@@ -978,11 +978,11 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="19.5">
-      <c r="A11" s="19"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="10">
         <v>9</v>
       </c>
@@ -998,11 +998,11 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="19.5">
-      <c r="A12" s="19"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="10">
@@ -1020,11 +1020,11 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="19.5">
-      <c r="A13" s="19"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="12">
         <v>56</v>
       </c>
@@ -1040,11 +1040,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="19"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="12">
         <v>78</v>
       </c>
@@ -1060,11 +1060,11 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="19.5">
-      <c r="A15" s="19"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="12">
         <v>21</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="10">
         <v>13</v>
       </c>
@@ -1124,10 +1124,10 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1154,8 +1154,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1180,8 +1180,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1211,7 +1211,7 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
       <c r="A21" s="20"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1236,10 +1236,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1269,7 +1269,7 @@
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1">
       <c r="A23" s="20"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1294,13 +1294,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="10">
@@ -1315,18 +1315,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="C25" s="22"/>
       <c r="D25" s="10">
         <v>20</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>

--- a/authority list.xlsx
+++ b/authority list.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="19230" windowHeight="4260"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19230" windowHeight="4260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="权限列表" sheetId="1" r:id="rId1"/>
+    <sheet name="系统功能列表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,41 @@
   <si>
     <t>用户的注册、密码的修改、权限的分配、日志管理；</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
   </si>
 </sst>
 </file>
@@ -350,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +434,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -408,18 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,18 +483,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -760,24 +801,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
@@ -804,13 +845,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10">
@@ -830,11 +871,11 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="39">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -852,11 +893,11 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19.5">
-      <c r="A5" s="26"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -874,11 +915,11 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19.5">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10">
         <v>4</v>
       </c>
@@ -896,13 +937,13 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19.5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="10">
@@ -920,11 +961,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19.5">
-      <c r="A8" s="26"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10">
         <v>6</v>
       </c>
@@ -940,11 +981,11 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19.5">
-      <c r="A9" s="26"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10">
         <v>11</v>
       </c>
@@ -960,11 +1001,11 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19.5">
-      <c r="A10" s="26"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10">
         <v>8</v>
       </c>
@@ -978,11 +1019,11 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="19.5">
-      <c r="A11" s="26"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="10">
         <v>9</v>
       </c>
@@ -998,11 +1039,11 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="19.5">
-      <c r="A12" s="26"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="10">
@@ -1020,11 +1061,11 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="19.5">
-      <c r="A13" s="26"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="12">
         <v>56</v>
       </c>
@@ -1040,11 +1081,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="12">
         <v>78</v>
       </c>
@@ -1060,11 +1101,11 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="19.5">
-      <c r="A15" s="26"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="12">
         <v>21</v>
       </c>
@@ -1080,11 +1121,11 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="19.5">
-      <c r="A16" s="20"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="10">
         <v>13</v>
       </c>
@@ -1124,10 +1165,10 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1154,8 +1195,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1180,8 +1221,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5">
-      <c r="A20" s="26"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1210,8 +1251,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1236,10 +1277,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1268,8 +1309,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1294,13 +1335,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="10">
@@ -1316,11 +1357,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="10">
         <v>20</v>
       </c>
@@ -1333,11 +1374,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:C6"/>
@@ -1347,6 +1383,347 @@
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="15" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39">
+      <c r="A4" s="24"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5">
+      <c r="A6" s="25"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5">
+      <c r="A7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5">
+      <c r="A15" s="24"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.5">
+      <c r="A16" s="25"/>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="58.5">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="54" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/authority list.xlsx
+++ b/authority list.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="16080" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19230" windowHeight="4260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="权限列表" sheetId="1" r:id="rId1"/>
+    <sheet name="系统功能列表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,12 +172,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户的注册、密码的修改、权限的分配；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资源管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的注册、密码的修改、权限的分配、日志管理；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
   </si>
 </sst>
 </file>
@@ -350,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +434,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,12 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -438,10 +482,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -760,24 +801,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
@@ -804,13 +845,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10">
@@ -830,11 +871,11 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="39">
-      <c r="A4" s="19"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="10">
         <v>2</v>
       </c>
@@ -852,11 +893,11 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19.5">
-      <c r="A5" s="19"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10">
         <v>3</v>
       </c>
@@ -874,11 +915,11 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19.5">
-      <c r="A6" s="20"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="10">
         <v>4</v>
       </c>
@@ -896,13 +937,13 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19.5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="10">
@@ -920,11 +961,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19.5">
-      <c r="A8" s="19"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10">
         <v>6</v>
       </c>
@@ -940,11 +981,11 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19.5">
-      <c r="A9" s="19"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10">
         <v>11</v>
       </c>
@@ -960,11 +1001,11 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19.5">
-      <c r="A10" s="19"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10">
         <v>8</v>
       </c>
@@ -978,11 +1019,11 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="19.5">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="10">
         <v>9</v>
       </c>
@@ -998,11 +1039,11 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="19.5">
-      <c r="A12" s="19"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="10">
@@ -1020,11 +1061,11 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="19.5">
-      <c r="A13" s="19"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="12">
         <v>56</v>
       </c>
@@ -1040,11 +1081,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="19.5">
-      <c r="A14" s="19"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="12">
         <v>78</v>
       </c>
@@ -1060,11 +1101,11 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="19.5">
-      <c r="A15" s="19"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="12">
         <v>21</v>
       </c>
@@ -1080,11 +1121,11 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="19.5">
-      <c r="A16" s="20"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="10">
         <v>13</v>
       </c>
@@ -1124,10 +1165,10 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1154,8 +1195,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1180,8 +1221,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1210,8 +1251,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1236,10 +1277,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="54" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1268,8 +1309,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1294,13 +1335,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="10">
@@ -1315,18 +1356,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="19.5">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:10" ht="45.75" customHeight="1">
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="C25" s="20"/>
       <c r="D25" s="10">
         <v>20</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1335,11 +1374,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C3:C6"/>
@@ -1349,6 +1383,347 @@
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="C12:C16"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A18:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="15" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39">
+      <c r="A4" s="24"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5">
+      <c r="A6" s="25"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5">
+      <c r="A7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5">
+      <c r="A11" s="24"/>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5">
+      <c r="A14" s="24"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.5">
+      <c r="A15" s="24"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.5">
+      <c r="A16" s="25"/>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="58.5">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="54" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
